--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4028.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4028.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.795933839679402</v>
+        <v>4.300369739532471</v>
       </c>
       <c r="B1">
-        <v>2.432310666831937</v>
+        <v>4.731704235076904</v>
       </c>
       <c r="C1">
-        <v>2.657256568071978</v>
+        <v>7.632800102233887</v>
       </c>
       <c r="D1">
-        <v>3.126781266444411</v>
+        <v>7.336466312408447</v>
       </c>
       <c r="E1">
-        <v>2.460688319080275</v>
+        <v>4.782388687133789</v>
       </c>
     </row>
   </sheetData>
